--- a/teaching/traditional_assets/database/data/netherlands/netherlands_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_insurance_life.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06075000000000001</v>
+        <v>0.01955</v>
       </c>
       <c r="E2">
-        <v>-0.142</v>
+        <v>0.03856</v>
       </c>
       <c r="F2">
-        <v>0.2945</v>
+        <v>0.062</v>
       </c>
       <c r="G2">
-        <v>0.07136252764102512</v>
+        <v>0.0846659311419022</v>
       </c>
       <c r="H2">
-        <v>0.07136252764102512</v>
+        <v>0.0846659311419022</v>
       </c>
       <c r="I2">
-        <v>0.06282177085527903</v>
+        <v>0.06338160586054123</v>
       </c>
       <c r="J2">
-        <v>0.05213096554801548</v>
+        <v>0.05597745668061119</v>
       </c>
       <c r="K2">
-        <v>1796.8</v>
+        <v>2649.1</v>
       </c>
       <c r="L2">
-        <v>0.02591801379851514</v>
+        <v>0.04298114676964014</v>
       </c>
       <c r="M2">
-        <v>2770.9</v>
+        <v>2761.7</v>
       </c>
       <c r="N2">
-        <v>0.1273701774788896</v>
+        <v>0.1235516226300296</v>
       </c>
       <c r="O2">
-        <v>1.542130454140694</v>
+        <v>1.04250500169869</v>
       </c>
       <c r="P2">
-        <v>1040.7</v>
+        <v>497.4</v>
       </c>
       <c r="Q2">
-        <v>0.04783793846846889</v>
+        <v>0.02225244490573804</v>
       </c>
       <c r="R2">
-        <v>0.5791963490650044</v>
+        <v>0.1877618813936808</v>
       </c>
       <c r="S2">
-        <v>1730.2</v>
+        <v>2264.3</v>
       </c>
       <c r="T2">
-        <v>0.6244180591143672</v>
+        <v>0.819893543831698</v>
       </c>
       <c r="U2">
-        <v>25118.9</v>
+        <v>26475.3</v>
       </c>
       <c r="V2">
-        <v>1.154642445080833</v>
+        <v>1.184439394074962</v>
       </c>
       <c r="W2">
-        <v>0.03159789881181382</v>
+        <v>0.04084668672067628</v>
       </c>
       <c r="X2">
-        <v>0.1175221449949956</v>
+        <v>0.09766601826728588</v>
       </c>
       <c r="Y2">
-        <v>-0.08592424618318178</v>
+        <v>-0.0568193315466096</v>
       </c>
       <c r="Z2">
-        <v>1.095669639663776</v>
+        <v>0.9800817549248489</v>
       </c>
       <c r="AA2">
-        <v>0.05249983962318371</v>
+        <v>0.05137411929916241</v>
       </c>
       <c r="AB2">
-        <v>0.06576136585366914</v>
+        <v>0.05310781966187775</v>
       </c>
       <c r="AC2">
-        <v>-0.01326152623048543</v>
+        <v>-0.001733700362715338</v>
       </c>
       <c r="AD2">
-        <v>25385.4</v>
+        <v>25555.9</v>
       </c>
       <c r="AE2">
-        <v>916.9953357783418</v>
+        <v>222.6905219570081</v>
       </c>
       <c r="AF2">
-        <v>26302.39533577834</v>
+        <v>25778.59052195701</v>
       </c>
       <c r="AG2">
-        <v>1183.495335778338</v>
+        <v>-696.7094780429907</v>
       </c>
       <c r="AH2">
-        <v>0.547315545228059</v>
+        <v>0.5355901286131091</v>
       </c>
       <c r="AI2">
-        <v>0.2790086509955515</v>
+        <v>0.2672542128011587</v>
       </c>
       <c r="AJ2">
-        <v>0.05159496283181249</v>
+        <v>-0.03217182305833111</v>
       </c>
       <c r="AK2">
-        <v>0.01711440617196498</v>
+        <v>-0.009955568116931567</v>
       </c>
       <c r="AL2">
-        <v>1136.9</v>
+        <v>1174.9</v>
       </c>
       <c r="AM2">
-        <v>1136.9</v>
+        <v>1174.9</v>
       </c>
       <c r="AN2">
-        <v>5.21957438059011</v>
+        <v>6.289134982158238</v>
       </c>
       <c r="AO2">
-        <v>3.813879848711408</v>
+        <v>3.316026895906034</v>
       </c>
       <c r="AP2">
-        <v>0.2433423122809372</v>
+        <v>-0.1714555132380929</v>
       </c>
       <c r="AQ2">
-        <v>3.813879848711408</v>
+        <v>3.316026895906034</v>
       </c>
     </row>
     <row r="3">
@@ -728,121 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.134</v>
+        <v>0.076</v>
+      </c>
+      <c r="E3">
+        <v>0.00042</v>
       </c>
       <c r="F3">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="G3">
-        <v>0.1537989093956051</v>
+        <v>0.1510326848003746</v>
       </c>
       <c r="H3">
-        <v>0.1537989093956051</v>
+        <v>0.1510326848003746</v>
       </c>
       <c r="I3">
-        <v>0.1496529490162406</v>
+        <v>0.1221166098581212</v>
       </c>
       <c r="J3">
-        <v>0.09871804158498909</v>
+        <v>0.09592405967588871</v>
       </c>
       <c r="K3">
-        <v>1199.4</v>
+        <v>1610.4</v>
       </c>
       <c r="L3">
-        <v>0.05261749441756198</v>
+        <v>0.07251081763781514</v>
       </c>
       <c r="M3">
-        <v>1226.7</v>
+        <v>1140</v>
       </c>
       <c r="N3">
-        <v>0.09648343178046422</v>
+        <v>0.07941760423560557</v>
       </c>
       <c r="O3">
-        <v>1.022761380690345</v>
+        <v>0.7078986587183308</v>
       </c>
       <c r="P3">
-        <v>507</v>
+        <v>249.8</v>
       </c>
       <c r="Q3">
-        <v>0.03987698696722537</v>
+        <v>0.01740220836671427</v>
       </c>
       <c r="R3">
-        <v>0.4227113556778389</v>
+        <v>0.1551167411823149</v>
       </c>
       <c r="S3">
-        <v>719.7</v>
+        <v>890.2</v>
       </c>
       <c r="T3">
-        <v>0.58669601369528</v>
+        <v>0.7808771929824562</v>
       </c>
       <c r="U3">
-        <v>11475.3</v>
+        <v>13941</v>
       </c>
       <c r="V3">
-        <v>0.9025648689250516</v>
+        <v>0.9711937023233133</v>
       </c>
       <c r="W3">
-        <v>0.04166290355076038</v>
+        <v>0.0440206873175372</v>
       </c>
       <c r="X3">
-        <v>0.1094335633651145</v>
+        <v>0.08553919197195863</v>
       </c>
       <c r="Y3">
-        <v>-0.06777065981435412</v>
+        <v>-0.04151850465442142</v>
       </c>
       <c r="Z3">
-        <v>0.7840523917481629</v>
+        <v>0.6138501934770589</v>
       </c>
       <c r="AA3">
-        <v>0.0774001166134053</v>
+        <v>0.05888300259114923</v>
       </c>
       <c r="AB3">
-        <v>0.06644747976638465</v>
+        <v>0.05366944207214916</v>
       </c>
       <c r="AC3">
-        <v>0.01095263684702065</v>
+        <v>0.005213560519000071</v>
       </c>
       <c r="AD3">
-        <v>12829.6</v>
+        <v>12906.8</v>
       </c>
       <c r="AE3">
-        <v>301.0296152974994</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>13130.6296152975</v>
+        <v>12906.8</v>
       </c>
       <c r="AG3">
-        <v>1655.3296152975</v>
+        <v>-1034.200000000001</v>
       </c>
       <c r="AH3">
-        <v>0.5080583086280569</v>
+        <v>0.473447707922953</v>
       </c>
       <c r="AI3">
-        <v>0.2454211838548575</v>
+        <v>0.2359582811543067</v>
       </c>
       <c r="AJ3">
-        <v>0.1151980043477341</v>
+        <v>-0.07764089397385951</v>
       </c>
       <c r="AK3">
-        <v>0.03938716801384824</v>
+        <v>-0.02537384839972032</v>
       </c>
       <c r="AL3">
-        <v>546.3</v>
+        <v>608.8</v>
       </c>
       <c r="AM3">
-        <v>546.3</v>
+        <v>608.8</v>
       </c>
       <c r="AN3">
-        <v>3.550758330565703</v>
+        <v>4.624601383066394</v>
       </c>
       <c r="AO3">
-        <v>6.241442430898774</v>
+        <v>4.454829172141919</v>
       </c>
       <c r="AP3">
-        <v>0.4581339575161906</v>
+        <v>-0.3705614676269307</v>
       </c>
       <c r="AQ3">
-        <v>6.241442430898774</v>
+        <v>4.454829172141919</v>
       </c>
     </row>
     <row r="4">
@@ -862,124 +865,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0125</v>
+        <v>-0.0369</v>
       </c>
       <c r="E4">
-        <v>-0.142</v>
+        <v>0.0767</v>
       </c>
       <c r="F4">
-        <v>0.319</v>
+        <v>-0.05599999999999999</v>
       </c>
       <c r="G4">
-        <v>0.03097894763988343</v>
+        <v>0.04727976481868058</v>
       </c>
       <c r="H4">
-        <v>0.03097894763988343</v>
+        <v>0.04727976481868058</v>
       </c>
       <c r="I4">
-        <v>0.02028528689973763</v>
+        <v>0.0302946081184378</v>
       </c>
       <c r="J4">
-        <v>0.02028528689973763</v>
+        <v>0.02971449252103728</v>
       </c>
       <c r="K4">
-        <v>597.4</v>
+        <v>1038.7</v>
       </c>
       <c r="L4">
-        <v>0.01283858711069467</v>
+        <v>0.02634629383968</v>
       </c>
       <c r="M4">
-        <v>1544.2</v>
+        <v>1621.7</v>
       </c>
       <c r="N4">
-        <v>0.1708072473065947</v>
+        <v>0.2027606556557182</v>
       </c>
       <c r="O4">
-        <v>2.58486776029461</v>
+        <v>1.561278521228458</v>
       </c>
       <c r="P4">
-        <v>533.7</v>
+        <v>247.6</v>
       </c>
       <c r="Q4">
-        <v>0.05903369245404066</v>
+        <v>0.03095735237118815</v>
       </c>
       <c r="R4">
-        <v>0.893371275527285</v>
+        <v>0.2383748916915375</v>
       </c>
       <c r="S4">
-        <v>1010.5</v>
+        <v>1374.1</v>
       </c>
       <c r="T4">
-        <v>0.6543841471312006</v>
+        <v>0.8473207128322131</v>
       </c>
       <c r="U4">
-        <v>13643.6</v>
+        <v>12534.3</v>
       </c>
       <c r="V4">
-        <v>1.50914762294538</v>
+        <v>1.567159700428852</v>
       </c>
       <c r="W4">
-        <v>0.02153289407286726</v>
+        <v>0.03767268612381536</v>
       </c>
       <c r="X4">
-        <v>0.1256107266248767</v>
+        <v>0.1097928445626131</v>
       </c>
       <c r="Y4">
-        <v>-0.1040778325520094</v>
+        <v>-0.07212015843879777</v>
       </c>
       <c r="Z4">
-        <v>1.36057048487291</v>
+        <v>1.476223629803533</v>
       </c>
       <c r="AA4">
-        <v>0.02759956263296211</v>
+        <v>0.04386523600717559</v>
       </c>
       <c r="AB4">
-        <v>0.06507525194095362</v>
+        <v>0.05254619725160634</v>
       </c>
       <c r="AC4">
-        <v>-0.03747568930799151</v>
+        <v>-0.008680961244430747</v>
       </c>
       <c r="AD4">
-        <v>12555.8</v>
+        <v>12649.1</v>
       </c>
       <c r="AE4">
-        <v>615.9657204808424</v>
+        <v>222.6905219570081</v>
       </c>
       <c r="AF4">
-        <v>13171.76572048084</v>
+        <v>12871.79052195701</v>
       </c>
       <c r="AG4">
-        <v>-471.8342795191584</v>
+        <v>337.4905219570101</v>
       </c>
       <c r="AH4">
-        <v>0.5929924748328746</v>
+        <v>0.6167636820334407</v>
       </c>
       <c r="AI4">
-        <v>0.3230871088156684</v>
+        <v>0.3082495789653111</v>
       </c>
       <c r="AJ4">
-        <v>-0.05506443925656554</v>
+        <v>0.04048789597665779</v>
       </c>
       <c r="AK4">
-        <v>-0.01739489825982424</v>
+        <v>0.0115486436012083</v>
       </c>
       <c r="AL4">
-        <v>590.6</v>
+        <v>566.1</v>
       </c>
       <c r="AM4">
-        <v>590.6</v>
+        <v>566.1</v>
       </c>
       <c r="AN4">
-        <v>10.04222986483244</v>
+        <v>9.93957252868144</v>
       </c>
       <c r="AO4">
-        <v>1.568405011852353</v>
+        <v>2.091326620738386</v>
       </c>
       <c r="AP4">
-        <v>-0.3773768531705658</v>
+        <v>0.2651976441592095</v>
       </c>
       <c r="AQ4">
-        <v>1.568405011852353</v>
+        <v>2.091326620738386</v>
       </c>
     </row>
   </sheetData>
